--- a/Models/Industry_model/Input/Steel/Data/Steel_Technologies.xlsx
+++ b/Models/Industry_model/Input/Steel/Data/Steel_Technologies.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="20387"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="20388"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\q.raillard-cazanove\ownCloud\1ère année\Optim modelling\Project\Etude_TP_CapaExpPlaning-Python\Models\Industry_model\Input\Steel\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\q.raillard-cazanove\ownCloud\1ère année\Optim modelling\Project\Etude_TP_CapaExpPlaning-Python\Models\Industry_model\Input\Steel\Data\v2\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1ECA5A26-7A42-444E-85B9-86F670FD9220}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{74B4A7D0-F843-4FF7-B0D2-C7131AA11BF9}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="21570" windowHeight="7350" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -18,9 +18,6 @@
     <sheet name="Sources" sheetId="2" r:id="rId3"/>
     <sheet name="Comment" sheetId="3" r:id="rId4"/>
   </sheets>
-  <externalReferences>
-    <externalReference r:id="rId5"/>
-  </externalReferences>
   <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
@@ -31,7 +28,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="92" uniqueCount="72">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="85" uniqueCount="64">
   <si>
     <t>coal</t>
   </si>
@@ -57,9 +54,6 @@
     <t>MWh</t>
   </si>
   <si>
-    <t>Electrolyser</t>
-  </si>
-  <si>
     <t>gas</t>
   </si>
   <si>
@@ -84,9 +78,6 @@
     <t>Resource</t>
   </si>
   <si>
-    <t>Zero</t>
-  </si>
-  <si>
     <t>Name</t>
   </si>
   <si>
@@ -96,33 +87,6 @@
     <t>Link</t>
   </si>
   <si>
-    <t>SMR</t>
-  </si>
-  <si>
-    <t>Gas_boiler</t>
-  </si>
-  <si>
-    <t>E_boiler</t>
-  </si>
-  <si>
-    <t>Coal</t>
-  </si>
-  <si>
-    <t>Biomass</t>
-  </si>
-  <si>
-    <t>Oil</t>
-  </si>
-  <si>
-    <t>Electricity</t>
-  </si>
-  <si>
-    <t>Gas</t>
-  </si>
-  <si>
-    <t>Biogas</t>
-  </si>
-  <si>
     <t>steel</t>
   </si>
   <si>
@@ -247,16 +211,24 @@
   </si>
   <si>
     <t>discount_rate</t>
+  </si>
+  <si>
+    <t>CCS</t>
+  </si>
+  <si>
+    <t>https://www.globalccsinstitute.com/wp-content/uploads/2021/03/Technology-Readiness-and-Costs-for-CCS-2021-1.pdf</t>
+  </si>
+  <si>
+    <t>(Kearns et al, 2021)</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <numFmts count="3">
+  <numFmts count="2">
     <numFmt numFmtId="43" formatCode="_-* #,##0.00\ _€_-;\-* #,##0.00\ _€_-;_-* &quot;-&quot;??\ _€_-;_-@_-"/>
     <numFmt numFmtId="164" formatCode="0.000"/>
-    <numFmt numFmtId="165" formatCode="0.0000"/>
   </numFmts>
   <fonts count="5" x14ac:knownFonts="1">
     <font>
@@ -296,7 +268,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="10">
+  <fills count="11">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -351,6 +323,12 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.59999389629810485"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
   <borders count="3">
     <border>
@@ -389,7 +367,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="43" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="41">
+  <cellXfs count="37">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
@@ -397,11 +375,7 @@
     <xf numFmtId="0" fontId="1" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="2" fontId="0" fillId="4" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="165" fontId="0" fillId="4" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="164" fontId="0" fillId="4" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="164" fontId="0" fillId="4" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
-    <xf numFmtId="2" fontId="0" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1"/>
@@ -418,9 +392,7 @@
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="7" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="7" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="1" fontId="0" fillId="7" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="1" fontId="0" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="2" fontId="0" fillId="2" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="8" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="8" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
@@ -433,12 +405,32 @@
     <xf numFmtId="0" fontId="0" fillId="9" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="8" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="9" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="10" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="10" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Milliers" xfId="1" builtinId="3"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="26">
+  <dxfs count="16">
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <name val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </font>
+    </dxf>
     <dxf>
       <font>
         <b val="0"/>
@@ -682,12 +674,6 @@
         <family val="2"/>
         <scheme val="minor"/>
       </font>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor indexed="64"/>
-          <bgColor theme="9" tint="0.59999389629810485"/>
-        </patternFill>
-      </fill>
       <border diagonalUp="0" diagonalDown="0" outline="0">
         <left/>
         <right/>
@@ -695,348 +681,6 @@
           <color theme="9"/>
         </top>
         <bottom/>
-      </border>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <name val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </font>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor indexed="64"/>
-          <bgColor theme="9" tint="0.59999389629810485"/>
-        </patternFill>
-      </fill>
-      <border diagonalUp="0" diagonalDown="0" outline="0">
-        <left/>
-        <right/>
-        <top style="thin">
-          <color theme="9"/>
-        </top>
-        <bottom/>
-      </border>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <name val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </font>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor indexed="64"/>
-          <bgColor theme="9" tint="0.59999389629810485"/>
-        </patternFill>
-      </fill>
-      <border diagonalUp="0" diagonalDown="0" outline="0">
-        <left/>
-        <right/>
-        <top style="thin">
-          <color theme="9"/>
-        </top>
-        <bottom/>
-      </border>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <name val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </font>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor indexed="64"/>
-          <bgColor theme="9" tint="0.59999389629810485"/>
-        </patternFill>
-      </fill>
-      <border diagonalUp="0" diagonalDown="0" outline="0">
-        <left/>
-        <right/>
-        <top style="thin">
-          <color theme="9"/>
-        </top>
-        <bottom/>
-      </border>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <name val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </font>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor indexed="64"/>
-          <bgColor theme="9" tint="0.59999389629810485"/>
-        </patternFill>
-      </fill>
-      <border diagonalUp="0" diagonalDown="0" outline="0">
-        <left/>
-        <right/>
-        <top style="thin">
-          <color theme="9"/>
-        </top>
-        <bottom/>
-      </border>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <name val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </font>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor indexed="64"/>
-          <bgColor theme="9" tint="0.59999389629810485"/>
-        </patternFill>
-      </fill>
-      <border diagonalUp="0" diagonalDown="0" outline="0">
-        <left/>
-        <right/>
-        <top style="thin">
-          <color theme="9"/>
-        </top>
-        <bottom/>
-      </border>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <name val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </font>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor indexed="64"/>
-          <bgColor theme="9" tint="0.59999389629810485"/>
-        </patternFill>
-      </fill>
-      <border diagonalUp="0" diagonalDown="0" outline="0">
-        <left/>
-        <right/>
-        <top style="thin">
-          <color theme="9"/>
-        </top>
-        <bottom/>
-      </border>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <name val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </font>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor indexed="64"/>
-          <bgColor theme="9" tint="0.59999389629810485"/>
-        </patternFill>
-      </fill>
-      <border diagonalUp="0" diagonalDown="0" outline="0">
-        <left/>
-        <right/>
-        <top style="thin">
-          <color theme="9"/>
-        </top>
-        <bottom/>
-      </border>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <name val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </font>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor indexed="64"/>
-          <bgColor theme="9" tint="0.59999389629810485"/>
-        </patternFill>
-      </fill>
-      <border diagonalUp="0" diagonalDown="0" outline="0">
-        <left/>
-        <right/>
-        <top style="thin">
-          <color theme="9"/>
-        </top>
-        <bottom/>
-      </border>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <name val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </font>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor indexed="64"/>
-          <bgColor theme="9" tint="0.59999389629810485"/>
-        </patternFill>
-      </fill>
-      <border diagonalUp="0" diagonalDown="0" outline="0">
-        <left/>
-        <right/>
-        <top style="thin">
-          <color theme="9"/>
-        </top>
-        <bottom/>
-      </border>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <name val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </font>
-      <border diagonalUp="0" diagonalDown="0" outline="0">
-        <left/>
-        <right/>
-        <top style="thin">
-          <color theme="9"/>
-        </top>
-        <bottom/>
-      </border>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <name val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </font>
-      <border diagonalUp="0" diagonalDown="0">
-        <left/>
-        <right/>
-        <top style="thin">
-          <color theme="9"/>
-        </top>
-        <bottom/>
-        <vertical/>
-        <horizontal/>
       </border>
     </dxf>
     <dxf>
@@ -1135,54 +779,23 @@
 </styleSheet>
 </file>
 
-<file path=xl/externalLinks/externalLink1.xml><?xml version="1.0" encoding="utf-8"?>
-<externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" mc:Ignorable="x14">
-  <externalBook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1">
-    <sheetNames>
-      <sheetName val="Feuil1"/>
-      <sheetName val="Sources"/>
-    </sheetNames>
-    <sheetDataSet>
-      <sheetData sheetId="0">
-        <row r="4">
-          <cell r="B4">
-            <v>11.666760000000002</v>
-          </cell>
-        </row>
-      </sheetData>
-      <sheetData sheetId="1" refreshError="1"/>
-    </sheetDataSet>
-  </externalBook>
-</externalLink>
-</file>
-
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="3" xr:uid="{013CB58D-7F5B-4EF4-A405-5ECDD25301A7}" name="Tableau3" displayName="Tableau3" ref="A1:W19" totalsRowShown="0" headerRowDxfId="25" dataDxfId="24" tableBorderDxfId="23">
-  <autoFilter ref="A1:W19" xr:uid="{87FB60C7-DCAA-43CC-AAD9-BB44B0181513}"/>
-  <tableColumns count="23">
-    <tableColumn id="1" xr3:uid="{42A5F6EE-6AFE-476D-8B1C-92974D7ECF5E}" name="Resource" dataDxfId="22"/>
-    <tableColumn id="2" xr3:uid="{436B0181-7084-40DE-83CC-F2B7CA1F9DBE}" name="Zero" dataDxfId="21"/>
-    <tableColumn id="4" xr3:uid="{9D816E12-F9ED-4134-84FD-E84CE7055F94}" name="unit" dataDxfId="20"/>
-    <tableColumn id="31" xr3:uid="{1834CA8E-6F62-4112-9C55-3BEBEF582BCD}" name="Coal" dataDxfId="19"/>
-    <tableColumn id="30" xr3:uid="{95CE3A02-2D09-444F-A86C-44BABD9960A1}" name="Biomass" dataDxfId="18"/>
-    <tableColumn id="29" xr3:uid="{3C14BBC9-3F5B-41A2-A16E-8B63C0830C83}" name="Oil" dataDxfId="17"/>
-    <tableColumn id="33" xr3:uid="{ABEF9DE2-1D37-4217-B0DB-9B4F2ABC2CC5}" name="Electricity" dataDxfId="16"/>
-    <tableColumn id="32" xr3:uid="{40527675-7B2B-4EC4-87CC-1F5584BF45D5}" name="Gas" dataDxfId="15"/>
-    <tableColumn id="34" xr3:uid="{F8B04E4E-A0EB-4B56-9F9D-4007CD57A8B7}" name="Biogas" dataDxfId="14"/>
-    <tableColumn id="28" xr3:uid="{3A6DD972-6816-40FD-9915-532B362BF585}" name="E_boiler" dataDxfId="13"/>
-    <tableColumn id="27" xr3:uid="{33DD4CA3-0CFF-44B4-B667-E3DD4CCEEC56}" name="Gas_boiler" dataDxfId="12"/>
-    <tableColumn id="26" xr3:uid="{B21DF75D-E835-4798-84CC-42014D76A798}" name="SMR" dataDxfId="11"/>
-    <tableColumn id="5" xr3:uid="{373EC982-CA8C-4DD0-B0E0-32F80AB9FA15}" name="Electrolyser" dataDxfId="10"/>
-    <tableColumn id="12" xr3:uid="{DB97F9EF-90E4-4C9C-991F-8DAD126D2235}" name="Scrap" dataDxfId="9"/>
-    <tableColumn id="13" xr3:uid="{E1370907-462D-42E0-BEE5-5C402344A846}" name="Pellet_making" dataDxfId="8"/>
-    <tableColumn id="23" xr3:uid="{9C579E2B-EFB9-4CDF-90A8-B8E4B9421C12}" name="BF-BOF" dataDxfId="7"/>
-    <tableColumn id="24" xr3:uid="{B0DEE251-5BB2-4367-BFBD-103A29B0561A}" name="H2-BF-BOF" dataDxfId="6"/>
-    <tableColumn id="6" xr3:uid="{2E6C1B91-C3DE-4354-BCF7-60140C2C1CA3}" name="BioBF-BOF" dataDxfId="5"/>
-    <tableColumn id="7" xr3:uid="{559435F3-4582-467F-8C76-B10399D7D78A}" name="EAF" dataDxfId="4"/>
-    <tableColumn id="8" xr3:uid="{E1E290F6-88F7-451F-9364-C275A967D90D}" name="H-DRI-EAF" dataDxfId="3"/>
-    <tableColumn id="9" xr3:uid="{1F484475-C8B0-425E-87D5-19B30AEACB25}" name="CH4-DRI-EAF" dataDxfId="2"/>
-    <tableColumn id="10" xr3:uid="{D0015D03-4CF5-4EF1-9804-DE585190B1D4}" name="BioDRI-EAF" dataDxfId="1"/>
-    <tableColumn id="11" xr3:uid="{7F11CCD2-8961-4412-87AE-60BC0FD4F71A}" name="Coal-DRI-EAF" dataDxfId="0"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="3" xr:uid="{013CB58D-7F5B-4EF4-A405-5ECDD25301A7}" name="Tableau3" displayName="Tableau3" ref="A1:M19" totalsRowShown="0" headerRowDxfId="15" dataDxfId="14" tableBorderDxfId="13">
+  <autoFilter ref="A1:M19" xr:uid="{87FB60C7-DCAA-43CC-AAD9-BB44B0181513}"/>
+  <tableColumns count="13">
+    <tableColumn id="1" xr3:uid="{42A5F6EE-6AFE-476D-8B1C-92974D7ECF5E}" name="Resource" dataDxfId="12"/>
+    <tableColumn id="4" xr3:uid="{9D816E12-F9ED-4134-84FD-E84CE7055F94}" name="unit" dataDxfId="11"/>
+    <tableColumn id="12" xr3:uid="{DB97F9EF-90E4-4C9C-991F-8DAD126D2235}" name="Scrap" dataDxfId="10"/>
+    <tableColumn id="13" xr3:uid="{E1370907-462D-42E0-BEE5-5C402344A846}" name="Pellet_making" dataDxfId="9"/>
+    <tableColumn id="23" xr3:uid="{9C579E2B-EFB9-4CDF-90A8-B8E4B9421C12}" name="BF-BOF" dataDxfId="8"/>
+    <tableColumn id="24" xr3:uid="{B0DEE251-5BB2-4367-BFBD-103A29B0561A}" name="H2-BF-BOF" dataDxfId="7"/>
+    <tableColumn id="6" xr3:uid="{2E6C1B91-C3DE-4354-BCF7-60140C2C1CA3}" name="BioBF-BOF" dataDxfId="6"/>
+    <tableColumn id="7" xr3:uid="{559435F3-4582-467F-8C76-B10399D7D78A}" name="EAF" dataDxfId="5"/>
+    <tableColumn id="8" xr3:uid="{E1E290F6-88F7-451F-9364-C275A967D90D}" name="H-DRI-EAF" dataDxfId="4"/>
+    <tableColumn id="9" xr3:uid="{1F484475-C8B0-425E-87D5-19B30AEACB25}" name="CH4-DRI-EAF" dataDxfId="3"/>
+    <tableColumn id="10" xr3:uid="{D0015D03-4CF5-4EF1-9804-DE585190B1D4}" name="BioDRI-EAF" dataDxfId="2"/>
+    <tableColumn id="11" xr3:uid="{7F11CCD2-8961-4412-87AE-60BC0FD4F71A}" name="Coal-DRI-EAF" dataDxfId="1"/>
+    <tableColumn id="2" xr3:uid="{2411BD64-AE68-4907-BEB4-476FC7533970}" name="CCS" dataDxfId="0"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleLight14" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -1497,943 +1110,665 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{BF0CEE37-33A3-4179-A627-9FAA023AC5EF}">
-  <dimension ref="A1:W19"/>
+  <dimension ref="A1:M19"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="I13" sqref="I13"/>
+      <selection activeCell="M16" sqref="M16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="8" max="8" width="12" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="12" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="12" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="16" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="12" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="16" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A1" s="4" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="B1" s="4" t="s">
-        <v>17</v>
+        <v>5</v>
       </c>
       <c r="C1" s="4" t="s">
-        <v>5</v>
+        <v>24</v>
       </c>
       <c r="D1" s="4" t="s">
-        <v>24</v>
+        <v>50</v>
       </c>
       <c r="E1" s="4" t="s">
+        <v>20</v>
+      </c>
+      <c r="F1" s="4" t="s">
+        <v>21</v>
+      </c>
+      <c r="G1" s="8" t="s">
+        <v>22</v>
+      </c>
+      <c r="H1" s="8" t="s">
+        <v>23</v>
+      </c>
+      <c r="I1" s="8" t="s">
+        <v>45</v>
+      </c>
+      <c r="J1" s="8" t="s">
+        <v>46</v>
+      </c>
+      <c r="K1" s="8" t="s">
+        <v>47</v>
+      </c>
+      <c r="L1" s="8" t="s">
+        <v>48</v>
+      </c>
+      <c r="M1" s="8" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="2" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A2" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="B2" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="C2" s="5"/>
+      <c r="D2" s="5"/>
+      <c r="E2" s="1">
+        <v>-1</v>
+      </c>
+      <c r="F2" s="1">
+        <v>-1</v>
+      </c>
+      <c r="G2" s="9">
+        <v>-1</v>
+      </c>
+      <c r="H2" s="9">
+        <v>-1</v>
+      </c>
+      <c r="I2" s="9">
+        <v>-1</v>
+      </c>
+      <c r="J2" s="9">
+        <v>-1</v>
+      </c>
+      <c r="K2" s="9">
+        <v>-1</v>
+      </c>
+      <c r="L2" s="9">
+        <v>-1</v>
+      </c>
+      <c r="M2" s="9"/>
+    </row>
+    <row r="3" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A3" s="17" t="s">
+        <v>49</v>
+      </c>
+      <c r="B3" s="17" t="s">
+        <v>6</v>
+      </c>
+      <c r="C3" s="17"/>
+      <c r="D3" s="17">
+        <v>-1</v>
+      </c>
+      <c r="E3" s="1">
+        <v>1</v>
+      </c>
+      <c r="F3" s="1">
+        <v>1</v>
+      </c>
+      <c r="G3" s="9">
+        <v>1</v>
+      </c>
+      <c r="H3" s="9"/>
+      <c r="I3" s="9">
+        <v>1</v>
+      </c>
+      <c r="J3" s="9">
+        <v>1</v>
+      </c>
+      <c r="K3" s="9">
+        <v>1</v>
+      </c>
+      <c r="L3" s="9">
+        <v>1</v>
+      </c>
+      <c r="M3" s="9"/>
+    </row>
+    <row r="4" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A4" s="17" t="s">
         <v>25</v>
       </c>
-      <c r="F1" s="4" t="s">
-        <v>26</v>
-      </c>
-      <c r="G1" s="4" t="s">
-        <v>27</v>
-      </c>
-      <c r="H1" s="4" t="s">
-        <v>28</v>
-      </c>
-      <c r="I1" s="4" t="s">
-        <v>29</v>
-      </c>
-      <c r="J1" s="4" t="s">
-        <v>23</v>
-      </c>
-      <c r="K1" s="4" t="s">
-        <v>22</v>
-      </c>
-      <c r="L1" s="4" t="s">
-        <v>21</v>
-      </c>
-      <c r="M1" s="4" t="s">
-        <v>8</v>
-      </c>
-      <c r="N1" s="4" t="s">
-        <v>35</v>
-      </c>
-      <c r="O1" s="4" t="s">
-        <v>61</v>
-      </c>
-      <c r="P1" s="4" t="s">
-        <v>31</v>
-      </c>
-      <c r="Q1" s="4" t="s">
-        <v>32</v>
-      </c>
-      <c r="R1" s="12" t="s">
-        <v>33</v>
-      </c>
-      <c r="S1" s="12" t="s">
-        <v>34</v>
-      </c>
-      <c r="T1" s="12" t="s">
-        <v>56</v>
-      </c>
-      <c r="U1" s="12" t="s">
-        <v>57</v>
-      </c>
-      <c r="V1" s="12" t="s">
-        <v>58</v>
-      </c>
-      <c r="W1" s="12" t="s">
-        <v>59</v>
-      </c>
-    </row>
-    <row r="2" spans="1:23" x14ac:dyDescent="0.25">
-      <c r="A2" s="1" t="s">
-        <v>30</v>
-      </c>
-      <c r="B2" s="1"/>
-      <c r="C2" s="1" t="s">
+      <c r="B4" s="17" t="s">
         <v>6</v>
       </c>
-      <c r="D2" s="5"/>
-      <c r="E2" s="5"/>
-      <c r="F2" s="5"/>
-      <c r="G2" s="5"/>
-      <c r="H2" s="5"/>
-      <c r="I2" s="5"/>
-      <c r="J2" s="5"/>
-      <c r="K2" s="5"/>
-      <c r="L2" s="5"/>
-      <c r="M2" s="5"/>
-      <c r="N2" s="5"/>
-      <c r="O2" s="5"/>
-      <c r="P2" s="1">
+      <c r="C4" s="17">
         <v>-1</v>
       </c>
-      <c r="Q2" s="1">
-        <v>-1</v>
-      </c>
-      <c r="R2" s="13">
-        <v>-1</v>
-      </c>
-      <c r="S2" s="13">
-        <v>-1</v>
-      </c>
-      <c r="T2" s="13">
-        <v>-1</v>
-      </c>
-      <c r="U2" s="13">
-        <v>-1</v>
-      </c>
-      <c r="V2" s="13">
-        <v>-1</v>
-      </c>
-      <c r="W2" s="13">
-        <v>-1</v>
-      </c>
-    </row>
-    <row r="3" spans="1:23" x14ac:dyDescent="0.25">
-      <c r="A3" s="21" t="s">
-        <v>60</v>
-      </c>
-      <c r="B3" s="21"/>
-      <c r="C3" s="21" t="s">
-        <v>6</v>
-      </c>
-      <c r="D3" s="21"/>
-      <c r="E3" s="21"/>
-      <c r="F3" s="21"/>
-      <c r="G3" s="21"/>
-      <c r="H3" s="21"/>
-      <c r="I3" s="21"/>
-      <c r="J3" s="21"/>
-      <c r="K3" s="21"/>
-      <c r="L3" s="21"/>
-      <c r="M3" s="21"/>
-      <c r="N3" s="21"/>
-      <c r="O3" s="21">
-        <v>-1</v>
-      </c>
-      <c r="P3" s="1">
+      <c r="D4" s="17"/>
+      <c r="E4" s="1"/>
+      <c r="F4" s="1"/>
+      <c r="G4" s="9"/>
+      <c r="H4" s="9">
         <v>1</v>
       </c>
-      <c r="Q3" s="1">
-        <v>1</v>
-      </c>
-      <c r="R3" s="13">
-        <v>1</v>
-      </c>
-      <c r="S3" s="13"/>
-      <c r="T3" s="13">
-        <v>1</v>
-      </c>
-      <c r="U3" s="13">
-        <v>1</v>
-      </c>
-      <c r="V3" s="13">
-        <v>1</v>
-      </c>
-      <c r="W3" s="13">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="4" spans="1:23" x14ac:dyDescent="0.25">
-      <c r="A4" s="21" t="s">
-        <v>36</v>
-      </c>
-      <c r="B4" s="21"/>
-      <c r="C4" s="21" t="s">
-        <v>6</v>
-      </c>
-      <c r="D4" s="21"/>
-      <c r="E4" s="21"/>
-      <c r="F4" s="21"/>
-      <c r="G4" s="21"/>
-      <c r="H4" s="21"/>
-      <c r="I4" s="21"/>
-      <c r="J4" s="21"/>
-      <c r="K4" s="21"/>
-      <c r="L4" s="21"/>
-      <c r="M4" s="21"/>
-      <c r="N4" s="21">
-        <v>-1</v>
-      </c>
-      <c r="O4" s="21"/>
-      <c r="P4" s="1"/>
-      <c r="Q4" s="1"/>
-      <c r="R4" s="13"/>
-      <c r="S4" s="13">
-        <v>1</v>
-      </c>
-      <c r="T4" s="13"/>
-      <c r="U4" s="13"/>
-      <c r="V4" s="13"/>
-      <c r="W4" s="13"/>
-    </row>
-    <row r="5" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="I4" s="9"/>
+      <c r="J4" s="9"/>
+      <c r="K4" s="9"/>
+      <c r="L4" s="9"/>
+      <c r="M4" s="9"/>
+    </row>
+    <row r="5" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A5" s="5" t="s">
         <v>2</v>
       </c>
-      <c r="B5" s="5"/>
-      <c r="C5" s="5" t="s">
+      <c r="B5" s="5" t="s">
         <v>6</v>
       </c>
+      <c r="C5" s="5"/>
       <c r="D5" s="5"/>
-      <c r="E5" s="5"/>
-      <c r="F5" s="5"/>
-      <c r="G5" s="5"/>
-      <c r="H5" s="5"/>
-      <c r="I5" s="5"/>
-      <c r="J5" s="5"/>
-      <c r="K5" s="5"/>
-      <c r="L5" s="5">
-        <v>-1</v>
-      </c>
-      <c r="M5" s="5">
-        <v>-1</v>
-      </c>
-      <c r="N5" s="5"/>
-      <c r="O5" s="5"/>
-      <c r="P5" s="1"/>
-      <c r="Q5" s="2">
-        <f>P7*0.15*27.5/120</f>
+      <c r="E5" s="1"/>
+      <c r="F5" s="2">
+        <f>E7*0.15*27.5/120</f>
         <v>1.8334529055985125E-2</v>
       </c>
-      <c r="R5" s="23"/>
-      <c r="S5" s="13"/>
-      <c r="T5" s="13">
+      <c r="G5" s="19"/>
+      <c r="H5" s="9"/>
+      <c r="I5" s="9">
         <v>0.05</v>
       </c>
-      <c r="U5" s="13"/>
-      <c r="V5" s="13"/>
-      <c r="W5" s="13"/>
-    </row>
-    <row r="6" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="J5" s="9"/>
+      <c r="K5" s="9"/>
+      <c r="L5" s="9"/>
+      <c r="M5" s="9"/>
+    </row>
+    <row r="6" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A6" s="5" t="s">
-        <v>9</v>
-      </c>
-      <c r="B6" s="5"/>
-      <c r="C6" s="5" t="s">
+        <v>8</v>
+      </c>
+      <c r="B6" s="5" t="s">
         <v>6</v>
       </c>
-      <c r="D6" s="5"/>
-      <c r="E6" s="5"/>
-      <c r="F6" s="5"/>
-      <c r="G6" s="5"/>
-      <c r="H6" s="5">
-        <v>-1</v>
-      </c>
-      <c r="I6" s="5">
-        <v>-1</v>
-      </c>
-      <c r="J6" s="5"/>
-      <c r="K6" s="6">
-        <f>1/0.95*0.75/[1]Feuil1!$B$4</f>
-        <v>6.7668631583278155E-2</v>
-      </c>
-      <c r="L6" s="5">
-        <v>3.04</v>
-      </c>
-      <c r="M6" s="5"/>
-      <c r="N6" s="9">
+      <c r="C6" s="7">
         <f>0.22/'Conversion table'!B3</f>
         <v>1.8856992001206843E-2</v>
       </c>
-      <c r="O6" s="9">
+      <c r="D6" s="7">
         <f>0.556/'Conversion table'!B3</f>
         <v>4.7656761603050032E-2</v>
       </c>
-      <c r="P6" s="2">
+      <c r="E6" s="2">
         <f>(0.153+0.036)/'Conversion table'!B3</f>
         <v>1.6199870401036789E-2</v>
       </c>
-      <c r="Q6" s="2">
+      <c r="F6" s="2">
         <f>Tableau3[[#This Row],[BF-BOF]]</f>
         <v>1.6199870401036789E-2</v>
       </c>
-      <c r="R6" s="2">
+      <c r="G6" s="2">
         <f>Tableau3[[#This Row],[H2-BF-BOF]]</f>
         <v>1.6199870401036789E-2</v>
       </c>
-      <c r="S6" s="2">
+      <c r="H6" s="2">
         <f>Tableau3[[#This Row],[BioBF-BOF]]</f>
         <v>1.6199870401036789E-2</v>
       </c>
-      <c r="T6" s="2">
+      <c r="I6" s="2">
         <f>Tableau3[[#This Row],[EAF]]</f>
         <v>1.6199870401036789E-2</v>
       </c>
-      <c r="U6" s="23">
+      <c r="J6" s="19">
         <f>1.972/'Conversion table'!B3+Tableau3[[#This Row],[BF-BOF]]</f>
         <v>0.1852270896118545</v>
       </c>
-      <c r="V6" s="23">
+      <c r="K6" s="19">
         <f>Tableau3[[#This Row],[EAF]]</f>
         <v>1.6199870401036789E-2</v>
       </c>
-      <c r="W6" s="23">
+      <c r="L6" s="19">
         <f>Tableau3[[#This Row],[H-DRI-EAF]]</f>
         <v>1.6199870401036789E-2</v>
       </c>
-    </row>
-    <row r="7" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="M6" s="9"/>
+    </row>
+    <row r="7" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A7" s="5" t="s">
         <v>0</v>
       </c>
-      <c r="B7" s="5"/>
-      <c r="C7" s="5" t="s">
+      <c r="B7" s="5" t="s">
         <v>6</v>
       </c>
-      <c r="D7" s="5">
-        <v>-1</v>
-      </c>
-      <c r="E7" s="5"/>
-      <c r="F7" s="5"/>
-      <c r="G7" s="5"/>
-      <c r="H7" s="5"/>
-      <c r="I7" s="5"/>
-      <c r="J7" s="5"/>
-      <c r="K7" s="5"/>
-      <c r="L7" s="5"/>
-      <c r="M7" s="5"/>
-      <c r="N7" s="5"/>
-      <c r="O7" s="9"/>
-      <c r="P7" s="2">
+      <c r="C7" s="5"/>
+      <c r="D7" s="7"/>
+      <c r="E7" s="2">
         <f>3.541/'Conversion table'!B4</f>
         <v>0.53336811799229455</v>
       </c>
-      <c r="Q7" s="2">
+      <c r="F7" s="2">
         <f>0.85*Tableau3[[#This Row],[BF-BOF]]</f>
         <v>0.45336290029345033</v>
       </c>
-      <c r="R7" s="23">
+      <c r="G7" s="19">
         <f>1.644/'Conversion table'!B4</f>
         <v>0.24762981812463489</v>
       </c>
-      <c r="S7" s="13"/>
-      <c r="T7" s="13"/>
-      <c r="U7" s="13"/>
-      <c r="V7" s="13"/>
-      <c r="W7" s="23">
+      <c r="H7" s="9"/>
+      <c r="I7" s="9"/>
+      <c r="J7" s="9"/>
+      <c r="K7" s="9"/>
+      <c r="L7" s="19">
         <f>0.853/'Conversion table'!B4</f>
         <v>0.12848432777391336</v>
       </c>
-    </row>
-    <row r="8" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="M7" s="9"/>
+    </row>
+    <row r="8" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A8" s="5" t="s">
         <v>1</v>
       </c>
-      <c r="B8" s="5"/>
-      <c r="C8" s="5" t="s">
+      <c r="B8" s="5" t="s">
         <v>6</v>
       </c>
-      <c r="D8" s="5"/>
-      <c r="E8" s="5">
-        <v>-1</v>
-      </c>
-      <c r="F8" s="5"/>
-      <c r="G8" s="5"/>
-      <c r="H8" s="5"/>
-      <c r="I8" s="5"/>
-      <c r="J8" s="5"/>
-      <c r="K8" s="5"/>
-      <c r="L8" s="5"/>
-      <c r="M8" s="5"/>
-      <c r="N8" s="5"/>
-      <c r="O8" s="9"/>
-      <c r="P8" s="1"/>
-      <c r="Q8" s="2"/>
-      <c r="R8" s="23">
+      <c r="C8" s="5"/>
+      <c r="D8" s="7"/>
+      <c r="E8" s="1"/>
+      <c r="F8" s="2"/>
+      <c r="G8" s="19">
         <f>1.897/'Conversion table'!B5</f>
         <v>0.42682158542731652</v>
       </c>
-      <c r="S8" s="13"/>
-      <c r="T8" s="13"/>
-      <c r="U8" s="13"/>
-      <c r="V8" s="23">
+      <c r="H8" s="9"/>
+      <c r="I8" s="9"/>
+      <c r="J8" s="9"/>
+      <c r="K8" s="19">
         <f>0.853/'Conversion table'!B5</f>
         <v>0.19192346461228307</v>
       </c>
-      <c r="W8" s="13"/>
-    </row>
-    <row r="9" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="L8" s="9"/>
+      <c r="M8" s="9"/>
+    </row>
+    <row r="9" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A9" s="5" t="s">
         <v>3</v>
       </c>
-      <c r="B9" s="5"/>
-      <c r="C9" s="5" t="s">
+      <c r="B9" s="5" t="s">
         <v>6</v>
       </c>
-      <c r="D9" s="5"/>
-      <c r="E9" s="5"/>
-      <c r="F9" s="5">
-        <v>-1</v>
-      </c>
-      <c r="G9" s="5"/>
-      <c r="H9" s="5"/>
-      <c r="I9" s="5"/>
-      <c r="J9" s="5"/>
-      <c r="K9" s="5"/>
-      <c r="L9" s="5"/>
-      <c r="M9" s="5"/>
-      <c r="N9" s="5"/>
-      <c r="O9" s="9"/>
-      <c r="P9" s="1"/>
-      <c r="Q9" s="1"/>
-      <c r="R9" s="13"/>
-      <c r="S9" s="13"/>
-      <c r="T9" s="13"/>
-      <c r="U9" s="13"/>
-      <c r="V9" s="13"/>
-      <c r="W9" s="13"/>
-    </row>
-    <row r="10" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="C9" s="5"/>
+      <c r="D9" s="7"/>
+      <c r="E9" s="1"/>
+      <c r="F9" s="1"/>
+      <c r="G9" s="9"/>
+      <c r="H9" s="9"/>
+      <c r="I9" s="9"/>
+      <c r="J9" s="9"/>
+      <c r="K9" s="9"/>
+      <c r="L9" s="9"/>
+      <c r="M9" s="9"/>
+    </row>
+    <row r="10" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A10" s="5" t="s">
-        <v>12</v>
-      </c>
-      <c r="B10" s="5"/>
-      <c r="C10" s="5" t="s">
+        <v>11</v>
+      </c>
+      <c r="B10" s="5" t="s">
         <v>6</v>
       </c>
+      <c r="C10" s="5"/>
       <c r="D10" s="5"/>
-      <c r="E10" s="5"/>
-      <c r="F10" s="5"/>
-      <c r="G10" s="5"/>
-      <c r="H10" s="5"/>
-      <c r="I10" s="5"/>
-      <c r="J10" s="5">
-        <v>-1</v>
-      </c>
-      <c r="K10" s="5">
-        <v>-1</v>
-      </c>
-      <c r="L10" s="11">
-        <f>4.9/1.1</f>
-        <v>4.4545454545454541</v>
-      </c>
-      <c r="M10" s="5"/>
-      <c r="N10" s="5"/>
-      <c r="O10" s="5"/>
-      <c r="P10" s="1"/>
-      <c r="Q10" s="1"/>
-      <c r="R10" s="13"/>
-      <c r="S10" s="13"/>
-      <c r="T10" s="13"/>
-      <c r="U10" s="13"/>
-      <c r="V10" s="13"/>
-      <c r="W10" s="13"/>
-    </row>
-    <row r="11" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="E10" s="1"/>
+      <c r="F10" s="1"/>
+      <c r="G10" s="9"/>
+      <c r="H10" s="9"/>
+      <c r="I10" s="9"/>
+      <c r="J10" s="9"/>
+      <c r="K10" s="9"/>
+      <c r="L10" s="9"/>
+      <c r="M10" s="9"/>
+    </row>
+    <row r="11" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A11" s="5" t="s">
         <v>4</v>
       </c>
-      <c r="B11" s="5"/>
-      <c r="C11" s="5" t="s">
+      <c r="B11" s="5" t="s">
         <v>7</v>
       </c>
-      <c r="D11" s="5"/>
-      <c r="E11" s="5"/>
-      <c r="F11" s="5"/>
-      <c r="G11" s="5">
-        <v>-1</v>
-      </c>
-      <c r="H11" s="5"/>
-      <c r="I11" s="5"/>
-      <c r="J11" s="6">
-        <f>1/0.99*0.75</f>
-        <v>0.75757575757575757</v>
-      </c>
-      <c r="K11" s="5"/>
-      <c r="L11" s="5"/>
-      <c r="M11" s="5">
-        <v>55</v>
-      </c>
-      <c r="N11" s="5">
+      <c r="C11" s="5">
         <f>0.004</f>
         <v>4.0000000000000001E-3</v>
       </c>
-      <c r="O11" s="5">
+      <c r="D11" s="5">
         <v>0.14000000000000001</v>
       </c>
-      <c r="P11" s="1">
+      <c r="E11" s="1">
         <f>0.085+0.109</f>
         <v>0.19400000000000001</v>
       </c>
-      <c r="Q11" s="1">
-        <f t="shared" ref="Q11:R11" si="0">0.085+0.109</f>
+      <c r="F11" s="1">
+        <f t="shared" ref="F11:G11" si="0">0.085+0.109</f>
         <v>0.19400000000000001</v>
       </c>
-      <c r="R11" s="1">
+      <c r="G11" s="1">
         <f t="shared" si="0"/>
         <v>0.19400000000000001</v>
       </c>
-      <c r="S11" s="13">
+      <c r="H11" s="9">
         <f>0.686+Tableau3[[#This Row],[BF-BOF]]</f>
         <v>0.88000000000000012</v>
       </c>
-      <c r="T11" s="13">
+      <c r="I11" s="9">
         <f>0.313+0.753+Tableau3[[#This Row],[BF-BOF]]</f>
         <v>1.26</v>
       </c>
-      <c r="U11" s="13">
+      <c r="J11" s="9">
         <f>0.313+0.753+Tableau3[[#This Row],[BF-BOF]]</f>
         <v>1.26</v>
       </c>
-      <c r="V11" s="13">
+      <c r="K11" s="9">
         <f>0.38+0.753+Tableau3[[#This Row],[BF-BOF]]</f>
         <v>1.327</v>
       </c>
-      <c r="W11" s="13">
+      <c r="L11" s="9">
         <f>0.38+0.753+Tableau3[[#This Row],[BF-BOF]]</f>
         <v>1.327</v>
       </c>
-    </row>
-    <row r="12" spans="1:23" x14ac:dyDescent="0.25">
-      <c r="A12" s="7" t="s">
+      <c r="M11" s="9"/>
+    </row>
+    <row r="12" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A12" s="5" t="s">
+        <v>13</v>
+      </c>
+      <c r="B12" s="5" t="s">
+        <v>6</v>
+      </c>
+      <c r="C12" s="5"/>
+      <c r="D12" s="5"/>
+      <c r="E12" s="1"/>
+      <c r="F12" s="1"/>
+      <c r="G12" s="9"/>
+      <c r="H12" s="9"/>
+      <c r="I12" s="9"/>
+      <c r="J12" s="9"/>
+      <c r="K12" s="9"/>
+      <c r="L12" s="9"/>
+      <c r="M12" s="9">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="13" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A13" s="5" t="s">
         <v>14</v>
       </c>
-      <c r="B12" s="7"/>
-      <c r="C12" s="7" t="s">
-        <v>6</v>
-      </c>
-      <c r="D12" s="5"/>
-      <c r="E12" s="5"/>
-      <c r="F12" s="5"/>
-      <c r="G12" s="5"/>
-      <c r="H12" s="5"/>
-      <c r="I12" s="5"/>
-      <c r="J12" s="5"/>
-      <c r="K12" s="5"/>
-      <c r="L12" s="5"/>
-      <c r="M12" s="5"/>
-      <c r="N12" s="5"/>
-      <c r="O12" s="5"/>
-      <c r="P12" s="1"/>
-      <c r="Q12" s="1"/>
-      <c r="R12" s="13"/>
-      <c r="S12" s="13"/>
-      <c r="T12" s="13"/>
-      <c r="U12" s="13"/>
-      <c r="V12" s="13"/>
-      <c r="W12" s="13"/>
-    </row>
-    <row r="13" spans="1:23" x14ac:dyDescent="0.25">
-      <c r="A13" s="5" t="s">
-        <v>15</v>
-      </c>
-      <c r="B13" s="5"/>
-      <c r="C13" s="5" t="s">
-        <v>11</v>
-      </c>
-      <c r="D13" s="9">
-        <f>29308*0.00001621</f>
-        <v>0.47508267999999998</v>
-      </c>
-      <c r="E13" s="9">
-        <f>0.000001*9*16900</f>
-        <v>0.15210000000000001</v>
-      </c>
-      <c r="F13" s="10">
-        <f>41816*0.0000136</f>
-        <v>0.56869760000000003</v>
-      </c>
-      <c r="G13" s="9">
-        <v>0.06</v>
-      </c>
-      <c r="H13" s="10">
-        <f>45998*0.0000097</f>
-        <v>0.44618060000000004</v>
-      </c>
-      <c r="I13" s="9">
-        <f>0.000001*-84*14500</f>
-        <v>-1.218</v>
-      </c>
-      <c r="J13" s="8"/>
+      <c r="B13" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="C13" s="5"/>
+      <c r="D13" s="5">
+        <f>0.26</f>
+        <v>0.26</v>
+      </c>
+      <c r="E13" s="1">
+        <f>0.097+1.476+0.193</f>
+        <v>1.766</v>
+      </c>
+      <c r="F13" s="1">
+        <f>(0.097+1.476)*F7/E7+0.193</f>
+        <v>1.5300499999999999</v>
+      </c>
+      <c r="G13" s="1">
+        <f>0.097+1.476+0.193</f>
+        <v>1.766</v>
+      </c>
+      <c r="H13" s="9"/>
+      <c r="I13" s="9"/>
+      <c r="J13" s="9">
+        <f>0.307+0.522</f>
+        <v>0.82899999999999996</v>
+      </c>
       <c r="K13" s="9">
-        <f>K6/0.000277778*0.00005624</f>
-        <v>1.3700450864516135E-2</v>
-      </c>
-      <c r="L13" s="5">
-        <v>12.13</v>
-      </c>
-      <c r="M13" s="5"/>
-      <c r="N13" s="5"/>
-      <c r="O13" s="5"/>
-      <c r="P13" s="1"/>
-      <c r="Q13" s="1"/>
-      <c r="R13" s="13"/>
-      <c r="S13" s="13"/>
-      <c r="T13" s="13"/>
-      <c r="U13" s="13"/>
-      <c r="V13" s="13"/>
-      <c r="W13" s="13"/>
-    </row>
-    <row r="14" spans="1:23" x14ac:dyDescent="0.25">
+        <f>1.048+0.307</f>
+        <v>1.355</v>
+      </c>
+      <c r="L13" s="9">
+        <f>1.048+0.307</f>
+        <v>1.355</v>
+      </c>
+      <c r="M13" s="9"/>
+    </row>
+    <row r="14" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A14" s="5" t="s">
-        <v>66</v>
-      </c>
-      <c r="B14" s="5"/>
-      <c r="C14" s="5" t="s">
-        <v>10</v>
-      </c>
-      <c r="D14" s="9"/>
-      <c r="E14" s="9"/>
-      <c r="F14" s="9"/>
-      <c r="G14" s="9"/>
-      <c r="H14" s="9"/>
-      <c r="I14" s="9"/>
-      <c r="J14" s="8"/>
-      <c r="K14" s="9"/>
-      <c r="L14" s="5"/>
-      <c r="M14" s="26">
-        <f>650000/M11</f>
-        <v>11818.181818181818</v>
-      </c>
-      <c r="N14" s="5"/>
-      <c r="O14" s="5"/>
-      <c r="P14" s="31">
+        <v>55</v>
+      </c>
+      <c r="B14" s="5" t="s">
+        <v>9</v>
+      </c>
+      <c r="C14" s="5"/>
+      <c r="D14" s="5"/>
+      <c r="E14" s="25">
         <f>170+48.3</f>
         <v>218.3</v>
       </c>
-      <c r="Q14" s="31">
-        <f t="shared" ref="Q14:R14" si="1">170+48.3</f>
+      <c r="F14" s="25">
+        <f t="shared" ref="F14:G14" si="1">170+48.3</f>
         <v>218.3</v>
       </c>
-      <c r="R14" s="31">
+      <c r="G14" s="25">
         <f t="shared" si="1"/>
         <v>218.3</v>
       </c>
-      <c r="S14" s="32">
+      <c r="H14" s="26">
         <f>184</f>
         <v>184</v>
       </c>
-      <c r="T14" s="32">
+      <c r="I14" s="26">
         <f>184+230</f>
         <v>414</v>
       </c>
-      <c r="U14" s="32">
-        <f t="shared" ref="U14:W14" si="2">184+230</f>
+      <c r="J14" s="26">
+        <f t="shared" ref="J14:L14" si="2">184+230</f>
         <v>414</v>
       </c>
-      <c r="V14" s="32">
+      <c r="K14" s="26">
         <f t="shared" si="2"/>
         <v>414</v>
       </c>
-      <c r="W14" s="32">
+      <c r="L14" s="26">
         <f t="shared" si="2"/>
         <v>414</v>
       </c>
-    </row>
-    <row r="15" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="M14" s="9"/>
+    </row>
+    <row r="15" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A15" s="5" t="s">
-        <v>68</v>
-      </c>
-      <c r="B15" s="5"/>
-      <c r="C15" s="5" t="s">
-        <v>69</v>
-      </c>
-      <c r="D15" s="9"/>
-      <c r="E15" s="9"/>
-      <c r="F15" s="9"/>
-      <c r="G15" s="9"/>
-      <c r="H15" s="9"/>
-      <c r="I15" s="9"/>
-      <c r="J15" s="8"/>
-      <c r="K15" s="9"/>
-      <c r="L15" s="5"/>
-      <c r="M15" s="28">
-        <v>10</v>
-      </c>
-      <c r="N15" s="5"/>
-      <c r="O15" s="5"/>
-      <c r="P15" s="3">
+        <v>57</v>
+      </c>
+      <c r="B15" s="5" t="s">
+        <v>58</v>
+      </c>
+      <c r="C15" s="5"/>
+      <c r="D15" s="5"/>
+      <c r="E15" s="3">
         <v>20</v>
       </c>
-      <c r="Q15" s="3">
+      <c r="F15" s="3">
         <v>20</v>
       </c>
-      <c r="R15" s="27">
+      <c r="G15" s="22">
         <v>20</v>
       </c>
-      <c r="S15" s="27">
+      <c r="H15" s="22">
         <v>20</v>
       </c>
-      <c r="T15" s="27">
+      <c r="I15" s="22">
         <v>20</v>
       </c>
-      <c r="U15" s="27">
+      <c r="J15" s="22">
         <v>20</v>
       </c>
-      <c r="V15" s="27">
+      <c r="K15" s="22">
         <v>20</v>
       </c>
-      <c r="W15" s="27">
+      <c r="L15" s="22">
         <v>20</v>
       </c>
-    </row>
-    <row r="16" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="M15" s="9"/>
+    </row>
+    <row r="16" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A16" s="5" t="s">
-        <v>71</v>
+        <v>60</v>
       </c>
       <c r="B16" s="5"/>
-      <c r="C16" s="5"/>
-      <c r="D16" s="9"/>
-      <c r="E16" s="9"/>
-      <c r="F16" s="9"/>
-      <c r="G16" s="9"/>
-      <c r="H16" s="9"/>
-      <c r="I16" s="9"/>
-      <c r="J16" s="8"/>
-      <c r="K16" s="9"/>
-      <c r="L16" s="5"/>
-      <c r="M16" s="11">
+      <c r="C16" s="6"/>
+      <c r="D16" s="6"/>
+      <c r="E16" s="23">
         <v>0.1</v>
       </c>
-      <c r="N16" s="6"/>
-      <c r="O16" s="6"/>
-      <c r="P16" s="29">
+      <c r="F16" s="23">
         <v>0.1</v>
       </c>
-      <c r="Q16" s="29">
+      <c r="G16" s="23">
         <v>0.1</v>
       </c>
-      <c r="R16" s="29">
+      <c r="H16" s="23">
         <v>0.1</v>
       </c>
-      <c r="S16" s="29">
+      <c r="I16" s="23">
         <v>0.1</v>
       </c>
-      <c r="T16" s="29">
+      <c r="J16" s="23">
         <v>0.1</v>
       </c>
-      <c r="U16" s="29">
+      <c r="K16" s="23">
         <v>0.1</v>
       </c>
-      <c r="V16" s="29">
+      <c r="L16" s="23">
         <v>0.1</v>
       </c>
-      <c r="W16" s="29">
-        <v>0.1</v>
-      </c>
-    </row>
-    <row r="17" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="M16" s="9"/>
+    </row>
+    <row r="17" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A17" s="5" t="s">
-        <v>70</v>
+        <v>59</v>
       </c>
       <c r="B17" s="5"/>
-      <c r="C17" s="5"/>
-      <c r="D17" s="9"/>
-      <c r="E17" s="9"/>
-      <c r="F17" s="9"/>
-      <c r="G17" s="9"/>
-      <c r="H17" s="9"/>
-      <c r="I17" s="9"/>
-      <c r="J17" s="8"/>
-      <c r="K17" s="9"/>
-      <c r="L17" s="5"/>
-      <c r="M17" s="6">
-        <f>(M16*(1+M16)^M15/((1+M16)^M15-1))</f>
-        <v>0.16274539488251155</v>
-      </c>
-      <c r="N17" s="6"/>
-      <c r="O17" s="6"/>
-      <c r="P17" s="22">
-        <f t="shared" ref="P17:W17" si="3">(P16*(1+P16)^P15/((1+P16)^P15-1))</f>
+      <c r="C17" s="6"/>
+      <c r="D17" s="6"/>
+      <c r="E17" s="18">
+        <f t="shared" ref="E17:L17" si="3">(E16*(1+E16)^E15/((1+E16)^E15-1))</f>
         <v>0.11745962477254576</v>
       </c>
-      <c r="Q17" s="22">
+      <c r="F17" s="18">
         <f t="shared" si="3"/>
         <v>0.11745962477254576</v>
       </c>
-      <c r="R17" s="22">
+      <c r="G17" s="18">
         <f t="shared" si="3"/>
         <v>0.11745962477254576</v>
       </c>
-      <c r="S17" s="22">
+      <c r="H17" s="18">
         <f t="shared" si="3"/>
         <v>0.11745962477254576</v>
       </c>
-      <c r="T17" s="22">
+      <c r="I17" s="18">
         <f t="shared" si="3"/>
         <v>0.11745962477254576</v>
       </c>
-      <c r="U17" s="22">
+      <c r="J17" s="18">
         <f t="shared" si="3"/>
         <v>0.11745962477254576</v>
       </c>
-      <c r="V17" s="22">
+      <c r="K17" s="18">
         <f t="shared" si="3"/>
         <v>0.11745962477254576</v>
       </c>
-      <c r="W17" s="22">
+      <c r="L17" s="18">
         <f t="shared" si="3"/>
         <v>0.11745962477254576</v>
       </c>
-    </row>
-    <row r="18" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="M17" s="9"/>
+    </row>
+    <row r="18" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A18" s="5" t="s">
-        <v>67</v>
-      </c>
-      <c r="B18" s="5"/>
-      <c r="C18" s="5" t="s">
-        <v>10</v>
-      </c>
-      <c r="D18" s="5">
-        <f>250*0.95</f>
-        <v>237.5</v>
-      </c>
-      <c r="E18" s="3">
-        <v>400</v>
-      </c>
-      <c r="F18" s="5">
-        <f>60*17.8</f>
-        <v>1068</v>
-      </c>
-      <c r="G18" s="5">
-        <v>60</v>
-      </c>
-      <c r="H18" s="5">
-        <f>25*[1]Feuil1!$B$4</f>
-        <v>291.66900000000004</v>
-      </c>
-      <c r="I18" s="5">
-        <f>49.2578*13</f>
-        <v>640.35140000000001</v>
-      </c>
-      <c r="J18" s="5"/>
-      <c r="K18" s="5"/>
-      <c r="L18" s="5">
-        <v>1500</v>
-      </c>
-      <c r="M18" s="5"/>
-      <c r="N18" s="31">
+        <v>56</v>
+      </c>
+      <c r="B18" s="5" t="s">
+        <v>9</v>
+      </c>
+      <c r="C18" s="25">
         <v>180</v>
       </c>
-      <c r="O18" s="24">
+      <c r="D18" s="20">
         <v>114</v>
       </c>
-      <c r="P18" s="33">
+      <c r="E18" s="27">
         <v>53.2</v>
       </c>
-      <c r="Q18" s="33">
+      <c r="F18" s="27">
         <v>53.2</v>
       </c>
-      <c r="R18" s="33">
+      <c r="G18" s="27">
         <v>53.2</v>
       </c>
-      <c r="S18" s="33">
+      <c r="H18" s="27">
         <v>53.2</v>
       </c>
-      <c r="T18" s="33">
+      <c r="I18" s="27">
         <v>53.2</v>
       </c>
-      <c r="U18" s="33">
+      <c r="J18" s="27">
         <v>53.2</v>
       </c>
-      <c r="V18" s="33">
+      <c r="K18" s="27">
         <v>53.2</v>
       </c>
-      <c r="W18" s="33">
+      <c r="L18" s="27">
         <v>53.2</v>
       </c>
-    </row>
-    <row r="19" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="M18" s="36">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="19" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A19" s="5" t="s">
-        <v>13</v>
-      </c>
-      <c r="B19" s="5"/>
-      <c r="C19" s="5" t="s">
+        <v>12</v>
+      </c>
+      <c r="B19" s="5" t="s">
         <v>6</v>
       </c>
-      <c r="D19" s="5"/>
-      <c r="E19" s="5"/>
-      <c r="F19" s="5"/>
-      <c r="G19" s="5"/>
-      <c r="H19" s="5"/>
-      <c r="I19" s="5"/>
-      <c r="J19" s="5">
-        <v>1</v>
-      </c>
-      <c r="K19" s="5">
-        <v>1</v>
-      </c>
-      <c r="L19" s="5">
-        <v>16.3</v>
-      </c>
-      <c r="M19" s="5">
-        <v>9</v>
-      </c>
-      <c r="N19" s="5"/>
-      <c r="O19" s="35">
+      <c r="C19" s="5"/>
+      <c r="D19" s="29">
         <f>0.26+0.035</f>
         <v>0.29500000000000004</v>
       </c>
-      <c r="P19" s="36">
+      <c r="E19" s="30">
         <f>0.097+1.476+0.193</f>
         <v>1.766</v>
       </c>
-      <c r="Q19" s="3">
-        <f>Tableau3[[#This Row],[BF-BOF]]*Q7/P7</f>
+      <c r="F19" s="3">
+        <f>Tableau3[[#This Row],[BF-BOF]]*F7/E7</f>
         <v>1.5010999999999999</v>
       </c>
-      <c r="R19" s="37">
+      <c r="G19" s="31">
         <f>Tableau3[[#This Row],[BF-BOF]]</f>
         <v>1.766</v>
       </c>
-      <c r="S19" s="38">
+      <c r="H19" s="32">
         <f>0.42</f>
         <v>0.42</v>
       </c>
-      <c r="T19" s="39">
+      <c r="I19" s="33">
         <v>5.2999999999999999E-2</v>
       </c>
-      <c r="U19" s="40">
+      <c r="J19" s="34">
         <f>0.522</f>
         <v>0.52200000000000002</v>
       </c>
-      <c r="V19" s="27">
+      <c r="K19" s="22">
         <f>Tableau3[[#This Row],[Coal-DRI-EAF]]</f>
         <v>1.048</v>
       </c>
-      <c r="W19" s="40">
+      <c r="L19" s="34">
         <f>1.048</f>
         <v>1.048</v>
       </c>
+      <c r="M19" s="9"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -2455,52 +1790,52 @@
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A1" s="17"/>
-      <c r="B1" s="20" t="s">
-        <v>62</v>
+      <c r="A1" s="13"/>
+      <c r="B1" s="16" t="s">
+        <v>51</v>
       </c>
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A2" s="18" t="s">
+      <c r="A2" s="14" t="s">
         <v>2</v>
       </c>
-      <c r="B2" s="19">
+      <c r="B2" s="15">
         <f>0.27778*120</f>
         <v>33.333600000000004</v>
       </c>
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A3" s="18" t="s">
-        <v>9</v>
-      </c>
-      <c r="B3" s="19">
+      <c r="A3" s="14" t="s">
+        <v>8</v>
+      </c>
+      <c r="B3" s="15">
         <f>0.27778*42</f>
         <v>11.666760000000002</v>
       </c>
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A4" s="18" t="s">
+      <c r="A4" s="14" t="s">
         <v>0</v>
       </c>
-      <c r="B4" s="19">
+      <c r="B4" s="15">
         <f>0.27778*23.9</f>
         <v>6.6389420000000001</v>
       </c>
     </row>
     <row r="5" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A5" s="18" t="s">
+      <c r="A5" s="14" t="s">
         <v>1</v>
       </c>
-      <c r="B5" s="19">
+      <c r="B5" s="15">
         <f>0.27778*16</f>
         <v>4.4444800000000004</v>
       </c>
     </row>
     <row r="6" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A6" s="18" t="s">
+      <c r="A6" s="14" t="s">
         <v>3</v>
       </c>
-      <c r="B6" s="19">
+      <c r="B6" s="15">
         <f>0.27778*42</f>
         <v>11.666760000000002</v>
       </c>
@@ -2512,10 +1847,10 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F1196D17-6166-40A9-953F-A236C50591E1}">
-  <dimension ref="A1:C13"/>
+  <dimension ref="A1:C14"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A10" sqref="A10:C10"/>
+      <selection activeCell="A14" sqref="A14:C14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2527,114 +1862,125 @@
   <sheetData>
     <row r="1" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
+        <v>16</v>
+      </c>
+      <c r="B1" t="s">
+        <v>17</v>
+      </c>
+      <c r="C1" t="s">
         <v>18</v>
       </c>
-      <c r="B1" t="s">
-        <v>19</v>
-      </c>
-      <c r="C1" t="s">
-        <v>20</v>
-      </c>
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A2" s="16" t="s">
-        <v>49</v>
+      <c r="A2" s="12" t="s">
+        <v>38</v>
       </c>
       <c r="C2" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A3" s="12" t="s">
         <v>38</v>
       </c>
-    </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A3" s="16" t="s">
-        <v>49</v>
-      </c>
       <c r="C3" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A4" s="12" t="s">
+        <v>38</v>
+      </c>
+      <c r="C4" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A5" s="12" t="s">
+        <v>38</v>
+      </c>
+      <c r="C5" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A6" s="12" t="s">
+        <v>38</v>
+      </c>
+      <c r="C6" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="7" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A7" s="24" t="s">
         <v>39</v>
       </c>
-    </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A4" s="16" t="s">
-        <v>49</v>
-      </c>
-      <c r="C4" t="s">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A5" s="16" t="s">
-        <v>49</v>
-      </c>
-      <c r="C5" t="s">
-        <v>41</v>
-      </c>
-    </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A6" s="16" t="s">
-        <v>49</v>
-      </c>
-      <c r="C6" t="s">
-        <v>42</v>
-      </c>
-    </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A7" s="30" t="s">
-        <v>50</v>
-      </c>
-      <c r="B7" s="30"/>
-      <c r="C7" s="30" t="s">
-        <v>43</v>
+      <c r="B7" s="24"/>
+      <c r="C7" s="24" t="s">
+        <v>32</v>
       </c>
     </row>
     <row r="8" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
-        <v>51</v>
+        <v>40</v>
       </c>
       <c r="C8" t="s">
-        <v>44</v>
+        <v>33</v>
       </c>
     </row>
     <row r="9" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
-        <v>52</v>
+        <v>41</v>
       </c>
       <c r="C9" t="s">
-        <v>45</v>
+        <v>34</v>
       </c>
     </row>
     <row r="10" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A10" s="34" t="s">
-        <v>53</v>
-      </c>
-      <c r="B10" s="34"/>
-      <c r="C10" s="34" t="s">
-        <v>46</v>
+      <c r="A10" s="28" t="s">
+        <v>42</v>
+      </c>
+      <c r="B10" s="28"/>
+      <c r="C10" s="28" t="s">
+        <v>35</v>
       </c>
     </row>
     <row r="11" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
-        <v>54</v>
+        <v>43</v>
       </c>
       <c r="C11" t="s">
-        <v>47</v>
+        <v>36</v>
       </c>
     </row>
     <row r="12" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
-        <v>55</v>
+        <v>44</v>
       </c>
       <c r="C12" t="s">
-        <v>48</v>
+        <v>37</v>
       </c>
     </row>
     <row r="13" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A13" s="25" t="s">
-        <v>65</v>
-      </c>
-      <c r="B13" s="25" t="s">
-        <v>64</v>
-      </c>
-      <c r="C13" s="25" t="s">
+      <c r="A13" s="21" t="s">
+        <v>54</v>
+      </c>
+      <c r="B13" s="21" t="s">
+        <v>53</v>
+      </c>
+      <c r="C13" s="21" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="14" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A14" s="35" t="s">
         <v>63</v>
+      </c>
+      <c r="B14" s="35" t="s">
+        <v>61</v>
+      </c>
+      <c r="C14" s="35" t="s">
+        <v>62</v>
       </c>
     </row>
   </sheetData>
@@ -2656,9 +2002,9 @@
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A1" s="14"/>
-      <c r="B1" s="15" t="s">
-        <v>37</v>
+      <c r="A1" s="10"/>
+      <c r="B1" s="11" t="s">
+        <v>26</v>
       </c>
     </row>
   </sheetData>

--- a/Models/Industry_model/Input/Steel/Data/Steel_Technologies.xlsx
+++ b/Models/Industry_model/Input/Steel/Data/Steel_Technologies.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="20388"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25330"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\q.raillard-cazanove\ownCloud\1ère année\Optim modelling\Project\Etude_TP_CapaExpPlaning-Python\Models\Industry_model\Input\Steel\Data\v2\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\quent\ownCloud\1ère année\Optim modelling\Project\Etude_TP_CapaExpPlaning-Python\Models\Industry_model\Input\Steel\Data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{74B4A7D0-F843-4FF7-B0D2-C7131AA11BF9}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9219E621-898B-42CC-BA74-4057E7EED880}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="21570" windowHeight="7350" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="4080" yWindow="6045" windowWidth="21600" windowHeight="11385" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Technologies" sheetId="4" r:id="rId1"/>
@@ -23,6 +23,16 @@
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
     </ext>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
+        <xcalcf:feature name="microsoft.com:LET_WF"/>
+        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
+      </xcalcf:calcFeatures>
+    </ext>
   </extLst>
 </workbook>
 </file>
@@ -227,8 +237,8 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="2">
-    <numFmt numFmtId="43" formatCode="_-* #,##0.00\ _€_-;\-* #,##0.00\ _€_-;_-* &quot;-&quot;??\ _€_-;_-@_-"/>
-    <numFmt numFmtId="164" formatCode="0.000"/>
+    <numFmt numFmtId="164" formatCode="_-* #,##0.00\ _€_-;\-* #,##0.00\ _€_-;_-* &quot;-&quot;??\ _€_-;_-@_-"/>
+    <numFmt numFmtId="165" formatCode="0.000"/>
   </numFmts>
   <fonts count="5" x14ac:knownFonts="1">
     <font>
@@ -365,17 +375,17 @@
   </borders>
   <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="43" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="164" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
   <cellXfs count="37">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="2" fontId="0" fillId="4" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="164" fontId="0" fillId="4" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="165" fontId="0" fillId="4" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1"/>
@@ -389,7 +399,7 @@
     <xf numFmtId="0" fontId="0" fillId="4" borderId="2" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="2" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="7" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="7" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
@@ -1113,7 +1123,7 @@
   <dimension ref="A1:M19"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="M16" sqref="M16"/>
+      <selection activeCell="R17" sqref="R17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
